--- a/backup/operacion/clasificación.xlsx
+++ b/backup/operacion/clasificación.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7425" tabRatio="828" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12915" tabRatio="828" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Agencia de Viajes Mayorista  C" sheetId="2" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Agencia de Viajes Internacio G" sheetId="8" r:id="rId7"/>
     <sheet name="Operador Turístico G" sheetId="9" r:id="rId8"/>
     <sheet name="Agencia de Viajes Dual G" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="59">
   <si>
     <t xml:space="preserve">"id": </t>
   </si>
@@ -57,7 +58,7 @@
     <t>"code":"</t>
   </si>
   <si>
-    <t>","register_type_id":3},"attach":[]},</t>
+    <t>","register_type_id":2},"attach":[]},</t>
   </si>
   <si>
     <t>{"Requisite":{</t>
@@ -147,9 +148,18 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>","register_type_id":4},"attach":[]},</t>
+  </si>
+  <si>
     <t>REQUISITOS GENERALES</t>
   </si>
   <si>
+    <t>","register_type_id":6},"attach":[]},</t>
+  </si>
+  <si>
+    <t>","register_type_id":8},"attach":[]},</t>
+  </si>
+  <si>
     <t xml:space="preserve">continente </t>
   </si>
   <si>
@@ -178,6 +188,18 @@
   </si>
   <si>
     <t>Agencia de Viajes Dual</t>
+  </si>
+  <si>
+    <t>","register_type_id":11},"attach":[]},</t>
+  </si>
+  <si>
+    <t>","register_type_id":13},"attach":[]},</t>
+  </si>
+  <si>
+    <t>","register_type_id":15},"attach":[]},</t>
+  </si>
+  <si>
+    <t>","register_type_id":17},"attach":[]},</t>
   </si>
 </sst>
 </file>
@@ -185,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -219,8 +241,47 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,86 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,7 +313,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +321,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +342,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,6 +366,22 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -408,7 +430,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,163 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,6 +627,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -615,6 +661,50 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -634,221 +724,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,7 +1219,479 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xlfn.CONCAT($N$1,$A$1,A2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,$H$1,H2,$I$1,I2,$J$1,$K$1,K2,$L$1)</f>
+        <v>{"Requisite":{"id": 1,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M14" si="0">_xlfn.CONCAT($N$1,$A$1,A3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,H3,$I$1,I3,$J$1,$K$1,K3,$L$1)</f>
+        <v>{"Requisite":{"id": 2,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="4" ht="28" customHeight="1" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Requisite":{"id": 3,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Requisite":{"id": 4,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Requisite":{"id": 5,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Requisite":{"id": 6,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Requisite":{"id": 7,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="9" ht="28" customHeight="1" spans="1:13">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Requisite":{"id": 8,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="1:13">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Requisite":{"id": 9,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="1:13">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Requisite":{"id": 10,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Requisite":{"id": 11,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="13" ht="28" customHeight="1" spans="1:13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Requisite":{"id": 12,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="1:13">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Requisite":{"id": 13,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":2},"attach":[]},</v>
+      </c>
+    </row>
+    <row r="15" ht="28" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="4" tint="0.4"/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M14"/>
     </sheetView>
   </sheetViews>
@@ -1243,464 +1737,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="str">
-        <f>_xlfn.CONCAT($N$1,$A$1,A2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,$H$1,H2,$I$1,I2,$J$1,$K$1,K2,$L$1)</f>
-        <v>{"Requisite":{"id": 1,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:13">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M14" si="0">_xlfn.CONCAT($N$1,$A$1,A3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,H3,$I$1,I3,$J$1,$K$1,K3,$L$1)</f>
-        <v>{"Requisite":{"id": 2,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="4" ht="28" customHeight="1" spans="1:13">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 3,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:13">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 4,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="1:13">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 5,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:13">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 6,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="1:13">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 7,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="1:13">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 8,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="1:13">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 9,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="1:13">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 10,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="12" ht="28" customHeight="1" spans="1:13">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 11,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="13" ht="28" customHeight="1" spans="1:13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 12,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="14" ht="28" customHeight="1" spans="1:13">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 13,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":3},"attach":[]},</v>
-      </c>
-    </row>
-    <row r="15" ht="28" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="4" tint="0.4"/>
-  </sheetPr>
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -1711,10 +1748,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -1733,7 +1770,7 @@
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT($N$1,$A$1,A2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,$H$1,H2,$I$1,I2,$J$1,$K$1,K2,$L$1)</f>
-        <v>{"Requisite":{"id": 14,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES","description":"REQUISITOS GENERALES","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 14,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES","description":"REQUISITOS GENERALES","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:13">
@@ -1763,7 +1800,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M14" si="0">_xlfn.CONCAT($N$1,$A$1,A3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,H3,$I$1,I3,$J$1,$K$1,K3,$L$1)</f>
-        <v>{"Requisite":{"id": 15,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 15,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:13">
@@ -1793,7 +1830,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 16,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 16,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:13">
@@ -1823,7 +1860,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 17,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 17,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:13">
@@ -1853,7 +1890,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 18,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 18,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:13">
@@ -1883,7 +1920,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 19,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 19,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:13">
@@ -1913,7 +1950,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 20,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 20,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:13">
@@ -1943,7 +1980,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 21,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 21,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:13">
@@ -1973,7 +2010,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 22,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 22,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:13">
@@ -2003,7 +2040,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 23,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 23,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:13">
@@ -2033,7 +2070,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 24,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 24,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:13">
@@ -2063,7 +2100,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 25,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 25,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:13">
@@ -2093,7 +2130,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 26,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 26,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":4},"attach":[]},</v>
       </c>
     </row>
     <row r="15" ht="28" customHeight="1"/>
@@ -2110,7 +2147,7 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M14"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -2189,7 +2226,7 @@
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT($N$1,$A$1,A2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,$H$1,H2,$I$1,I2,$J$1,$K$1,K2,$L$1)</f>
-        <v>{"Requisite":{"id": 27,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 27,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:13">
@@ -2219,7 +2256,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M14" si="0">_xlfn.CONCAT($N$1,$A$1,A3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,H3,$I$1,I3,$J$1,$K$1,K3,$L$1)</f>
-        <v>{"Requisite":{"id": 28,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 28,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:13">
@@ -2249,7 +2286,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 29,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 29,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:13">
@@ -2279,7 +2316,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 30,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 30,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:13">
@@ -2309,7 +2346,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 31,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 31,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:13">
@@ -2339,7 +2376,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 32,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 32,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:13">
@@ -2369,7 +2406,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 33,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 33,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:13">
@@ -2399,7 +2436,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 34,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 34,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:13">
@@ -2429,7 +2466,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 35,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 35,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:13">
@@ -2459,7 +2496,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 36,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 36,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:13">
@@ -2489,7 +2526,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 37,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 37,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:13">
@@ -2519,7 +2556,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 38,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 38,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:13">
@@ -2549,7 +2586,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 39,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 39,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":6},"attach":[]},</v>
       </c>
     </row>
     <row r="15" ht="28" customHeight="1"/>
@@ -2566,7 +2603,7 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M14"/>
     </sheetView>
   </sheetViews>
@@ -2612,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -2645,7 +2682,7 @@
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT($N$1,$A$1,A2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,$H$1,H2,$I$1,I2,$J$1,$K$1,K2,$L$1)</f>
-        <v>{"Requisite":{"id": 40,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 40,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:13">
@@ -2675,7 +2712,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M14" si="0">_xlfn.CONCAT($N$1,$A$1,A3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,H3,$I$1,I3,$J$1,$K$1,K3,$L$1)</f>
-        <v>{"Requisite":{"id": 41,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 41,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:13">
@@ -2705,7 +2742,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 42,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 42,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:13">
@@ -2735,7 +2772,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 43,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 43,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:13">
@@ -2765,7 +2802,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 44,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 44,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:13">
@@ -2795,7 +2832,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 45,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 45,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:13">
@@ -2825,7 +2862,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 46,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 46,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:13">
@@ -2855,7 +2892,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 47,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 47,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:13">
@@ -2885,7 +2922,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 48,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 48,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:13">
@@ -2915,7 +2952,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 49,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 49,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:13">
@@ -2945,7 +2982,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 50,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 50,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:13">
@@ -2975,7 +3012,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 51,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 51,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:13">
@@ -3005,7 +3042,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 52,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 52,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":8},"attach":[]},</v>
       </c>
     </row>
     <row r="15" ht="28" customHeight="1"/>
@@ -3018,121 +3055,121 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
         <v>45</v>
       </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="10">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="9">
+    <row r="4" spans="2:4">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9">
+    <row r="5" spans="2:4">
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="10">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9">
+    <row r="6" spans="2:4">
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="9">
+    <row r="7" spans="2:4">
+      <c r="B7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="9">
+    <row r="8" spans="2:4">
+      <c r="B8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="9">
+    <row r="9" spans="2:4">
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="D10" s="10">
         <v>18</v>
       </c>
     </row>
@@ -3150,7 +3187,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="M2" sqref="M2:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3195,7 +3232,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -3228,7 +3265,7 @@
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT($N$1,$A$1,A2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,$H$1,H2,$I$1,I2,$J$1,$K$1,K2,$L$1)</f>
-        <v>{"Requisite":{"id": 53,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 53,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:13">
@@ -3258,7 +3295,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M14" si="0">_xlfn.CONCAT($N$1,$A$1,A3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,H3,$I$1,I3,$J$1,$K$1,K3,$L$1)</f>
-        <v>{"Requisite":{"id": 54,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 54,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:13">
@@ -3288,7 +3325,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 55,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 55,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:13">
@@ -3318,7 +3355,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 56,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 56,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:13">
@@ -3348,7 +3385,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 57,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 57,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:13">
@@ -3378,7 +3415,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 58,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 58,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:13">
@@ -3408,7 +3445,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 59,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 59,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:13">
@@ -3438,7 +3475,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 60,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 60,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:13">
@@ -3468,7 +3505,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 61,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 61,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:13">
@@ -3498,7 +3535,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 62,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 62,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:13">
@@ -3528,7 +3565,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 63,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 63,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:13">
@@ -3558,7 +3595,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 64,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 64,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:13">
@@ -3588,7 +3625,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 65,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 65,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":11},"attach":[]},</v>
       </c>
     </row>
     <row r="15" ht="28" customHeight="1"/>
@@ -3605,7 +3642,7 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M14"/>
     </sheetView>
   </sheetViews>
@@ -3651,7 +3688,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -3662,10 +3699,10 @@
         <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -3684,7 +3721,7 @@
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT($N$1,$A$1,A2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,$H$1,H2,$I$1,I2,$J$1,$K$1,K2,$L$1)</f>
-        <v>{"Requisite":{"id": 66,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES","description":"REQUISITOS GENERALES","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 66,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES","description":"REQUISITOS GENERALES","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:13">
@@ -3714,7 +3751,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M14" si="0">_xlfn.CONCAT($N$1,$A$1,A3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,H3,$I$1,I3,$J$1,$K$1,K3,$L$1)</f>
-        <v>{"Requisite":{"id": 67,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 67,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:13">
@@ -3744,7 +3781,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 68,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 68,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:13">
@@ -3774,7 +3811,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 69,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 69,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:13">
@@ -3804,7 +3841,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 70,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 70,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:13">
@@ -3834,7 +3871,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 71,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 71,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:13">
@@ -3864,7 +3901,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 72,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 72,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:13">
@@ -3894,7 +3931,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 73,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 73,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:13">
@@ -3924,7 +3961,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 74,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 74,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:13">
@@ -3954,7 +3991,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 75,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 75,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:13">
@@ -3984,7 +4021,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 76,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 76,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:13">
@@ -4014,7 +4051,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 77,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 77,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:13">
@@ -4044,7 +4081,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 78,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 78,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":13},"attach":[]},</v>
       </c>
     </row>
     <row r="15" ht="28" customHeight="1"/>
@@ -4061,7 +4098,7 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M14"/>
     </sheetView>
   </sheetViews>
@@ -4107,7 +4144,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -4140,7 +4177,7 @@
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT($N$1,$A$1,A2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,$H$1,H2,$I$1,I2,$J$1,$K$1,K2,$L$1)</f>
-        <v>{"Requisite":{"id": 79,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 79,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:13">
@@ -4170,7 +4207,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M14" si="0">_xlfn.CONCAT($N$1,$A$1,A3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,H3,$I$1,I3,$J$1,$K$1,K3,$L$1)</f>
-        <v>{"Requisite":{"id": 80,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 80,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:13">
@@ -4200,7 +4237,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 81,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 81,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:13">
@@ -4230,7 +4267,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 82,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 82,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:13">
@@ -4260,7 +4297,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 83,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 83,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:13">
@@ -4290,7 +4327,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 84,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 84,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:13">
@@ -4320,7 +4357,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 85,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 85,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:13">
@@ -4350,7 +4387,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 86,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 86,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:13">
@@ -4380,7 +4417,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 87,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 87,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:13">
@@ -4410,7 +4447,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 88,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 88,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:13">
@@ -4440,7 +4477,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 89,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 89,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:13">
@@ -4470,7 +4507,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 90,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 90,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:13">
@@ -4500,7 +4537,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 91,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 91,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":15},"attach":[]},</v>
       </c>
     </row>
     <row r="15" ht="28" customHeight="1"/>
@@ -4517,8 +4554,8 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4563,7 +4600,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -4596,7 +4633,7 @@
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT($N$1,$A$1,A2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,$H$1,H2,$I$1,I2,$J$1,$K$1,K2,$L$1)</f>
-        <v>{"Requisite":{"id": 92,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 92,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES ","description":"REQUISITOS GENERALES ","father_code":"-","to_approve":1,"mandatory":false ,"type":"GRUPO 0","params":"","code":"1","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:13">
@@ -4626,7 +4663,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M14" si="0">_xlfn.CONCAT($N$1,$A$1,A3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,H3,$I$1,I3,$J$1,$K$1,K3,$L$1)</f>
-        <v>{"Requisite":{"id": 93,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 93,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","description":"CONTAR CON PERMISO DE USO DE SUELO PARA LA ACTIVIDAD","father_code":"1","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"1.1","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:13">
@@ -4656,7 +4693,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 94,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 94,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","description":"REQUISITOS GENERALES DEL ESTABLECIMIENTO","father_code":"-","to_approve":6,"mandatory":false ,"type":"GRUPO 0","params":"","code":"2","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:13">
@@ -4686,7 +4723,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 95,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 95,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","description":"CUENTA CON UN ESPACIO FÍSICO CON ACCESO INDEPENDIENTE","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.1","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:13">
@@ -4716,7 +4753,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 96,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 96,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","description":"CUENTA CON POLÍTICAS DE COBRO Y TARIFAS PARA LA PRESTACIÓN DE SUS SERVICIOS","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.2","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:13">
@@ -4746,7 +4783,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 97,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 97,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA FACTURAS A SUS CLIENTES","description":"ENTREGA FACTURAS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.3","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:13">
@@ -4776,7 +4813,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 98,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 98,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","description":"ENTREGA UNA COPIA DEL CONTRATO DE SERVICIOS A SUS CLIENTES","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.4","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:13">
@@ -4806,7 +4843,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 99,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 99,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","description":"UTILIZA LA MARCA PAIS EN SUS HERRAMIENTAS DIGITALES Y OTRO TIPO DE PUBLICIDAD","father_code":"2","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"2.5","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:13">
@@ -4836,7 +4873,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 100,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 100,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","description":"EXHIBE EN UN LUGAR VISIBLE EL REGISTRO Y LA LICENCIA ÚNICA DE FUNCIONAMIENTO.","father_code":"2","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"2.6","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:13">
@@ -4866,7 +4903,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 101,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 101,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","description":"REQUISITOS PARA ACCEDER AL REGISTRO DE TURISMO","father_code":"-","to_approve":3,"mandatory":false ,"type":"GRUPO 0","params":"","code":"3","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:13">
@@ -4896,7 +4933,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 102,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 102,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","description":"AL MENOS EL 30% DEL PERSONAL DEBERÁ CONTAR CON TÍTULO PROFESIONAL EN TURISMO, RAMAS A FINES O CERTIFICADO EN COMPETENCIAS LABORALES EN INTERMEDIACIÓN, OPERACIÓN, HOSPITALIDAD O LAS QUE DETERMINE LA AUTORIDAD NACIONAL DE TURISMO; TAMBIÉN SE CONTARÁ COMO VÁLIDOS LOS CURSOS DICTADOS O AVALADOS POR LA AUTORIDAD NACIONAL DE TURISMO.","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.1","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:13">
@@ -4926,7 +4963,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 103,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 103,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","description":"AL MENOS EL 20% DEL PERSONAL DEBERÁ ACREDITAR MÍNIMO EL NIVEL B1 DE CONOCIMIENTO DE AL MENOS UN IDIOMA EXTRANJERO DE ACUERDO AL MARCO COMÚN EUROPEO PARA LAS LENGUAS, Y A LO ESTABLECIDO POR ESTE REGLAMENTO","father_code":"3","to_approve":1,"mandatory":true ,"type":"TRUE / FALSE","params":"","code":"3.2","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:13">
@@ -4956,7 +4993,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>{"Requisite":{"id": 104,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":3},"attach":[]},</v>
+        <v>{"Requisite":{"id": 104,"created_at":"2020-03-27 10:28:51","updated_at":"2020-03-27 10:28:51","name":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","description":"CONTAR CON UN ESPACIO FÍSICO PERMANENTEMENTE PARA EL DESARROLLO DE SUS ACTIVIDADES COMERCIALES Y ADMINISTRATIVAS, EL MISMO QUE DEBERÁ SER OBLIGATORIAMENTE UN LOCAL COMERCIAL U OTRA OFICINA, QUEDANDO PROHIBIDO EL USO DE VIVIENDAS EN FORMA GENERAL","father_code":"3","to_approve":0,"mandatory":false ,"type":"TRUE / FALSE","params":"","code":"3.3","register_type_id":17},"attach":[]},</v>
       </c>
     </row>
     <row r="15" ht="28" customHeight="1"/>
